--- a/Project/ASR/Charactersheet ggf. für ancestral state analyse.xlsx
+++ b/Project/ASR/Charactersheet ggf. für ancestral state analyse.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Samenbildung (ja 1/nein 2)</t>
   </si>
@@ -19,13 +19,7 @@
     <t>Embryobildung (ja/nein)</t>
   </si>
   <si>
-    <t>Morphologie (Blattbildung/Kallus)/ Einzellig/Mehrzellig bestimmte Zelltypen??</t>
-  </si>
-  <si>
-    <t>Aquatisch (ja 1/nein 2)</t>
-  </si>
-  <si>
-    <t>Vaskulärsystem (1 ja/2 nein)</t>
+    <t>Berfruchtung</t>
   </si>
   <si>
     <t>Rhizoide (ja 1/Nein 2)</t>
@@ -37,6 +31,9 @@
     <t>Lebenszyklus: (Haplont 1/Diplont 2/Haplodiplont 3)</t>
   </si>
   <si>
+    <t>1: Isogamie/ 2: Anisogamie / 3: Oogamie / 4:Siphonogamie(Pollenschlauchbefruchtung)</t>
+  </si>
+  <si>
     <t>Characters</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Embryobildung</t>
   </si>
   <si>
-    <t>Morphologie</t>
-  </si>
-  <si>
     <t>Aquatisch</t>
   </si>
   <si>
@@ -62,6 +56,9 @@
   </si>
   <si>
     <t>Lebenszyklus</t>
+  </si>
+  <si>
+    <t>Befruchtungstyp</t>
   </si>
   <si>
     <t>Amborella_trichopoda</t>
@@ -424,17 +421,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="24.0"/>
     <col customWidth="1" min="2" max="2" width="19.75"/>
     <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="5.38"/>
-    <col customWidth="1" min="6" max="6" width="19.75"/>
-    <col customWidth="1" min="8" max="8" width="18.38"/>
-    <col customWidth="1" min="9" max="9" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="18.38"/>
+    <col customWidth="1" min="8" max="8" width="18.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,54 +446,52 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -502,11 +499,14 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
+      <c r="D3" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -515,12 +515,12 @@
         <v>2.0</v>
       </c>
       <c r="I3" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -528,11 +528,14 @@
       <c r="C4" s="1">
         <v>1.0</v>
       </c>
+      <c r="D4" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <v>2.0</v>
@@ -541,12 +544,12 @@
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -554,17 +557,20 @@
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
+      <c r="D5" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="1">
         <v>3.0</v>
@@ -572,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -580,11 +586,14 @@
       <c r="C6" s="1">
         <v>1.0</v>
       </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <v>2.0</v>
@@ -593,12 +602,12 @@
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -606,25 +615,28 @@
       <c r="C7" s="1">
         <v>2.0</v>
       </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="1">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" s="1">
         <v>1.0</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -632,14 +644,17 @@
       <c r="C8" s="1">
         <v>2.0</v>
       </c>
+      <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E8" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="1">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="1">
         <v>1.0</v>
@@ -650,7 +665,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2.0</v>
@@ -658,8 +673,11 @@
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" s="1">
         <v>2.0</v>
@@ -668,7 +686,7 @@
         <v>2.0</v>
       </c>
       <c r="H9" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" s="1">
         <v>1.0</v>
@@ -676,7 +694,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>2.0</v>
@@ -684,25 +702,28 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F10" s="1">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="1">
         <v>1.0</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -710,8 +731,11 @@
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
+      <c r="D11" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" s="1">
         <v>2.0</v>
@@ -720,7 +744,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="1">
         <v>1.0</v>
@@ -728,7 +752,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>2.0</v>
@@ -736,8 +760,11 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" s="1">
         <v>2.0</v>
@@ -746,15 +773,15 @@
         <v>2.0</v>
       </c>
       <c r="H12" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>2.0</v>
@@ -762,14 +789,17 @@
       <c r="C13" s="1">
         <v>2.0</v>
       </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E13" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" s="1">
         <v>2.0</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="1">
         <v>1.0</v>
@@ -780,7 +810,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -788,11 +818,14 @@
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
+      <c r="D14" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E14" s="1">
         <v>2.0</v>
       </c>
       <c r="F14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="1">
         <v>1.0</v>
@@ -801,12 +834,12 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -814,25 +847,28 @@
       <c r="C15" s="1">
         <v>2.0</v>
       </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15" s="1">
         <v>2.0</v>
       </c>
       <c r="G15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -840,8 +876,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
+      <c r="D16" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" s="1">
         <v>2.0</v>
@@ -850,15 +889,15 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I16" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -866,8 +905,11 @@
       <c r="C17" s="1">
         <v>2.0</v>
       </c>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" s="1">
         <v>2.0</v>
@@ -876,15 +918,15 @@
         <v>2.0</v>
       </c>
       <c r="H17" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -892,8 +934,11 @@
       <c r="C18" s="1">
         <v>2.0</v>
       </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E18" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" s="1">
         <v>2.0</v>
@@ -902,15 +947,15 @@
         <v>2.0</v>
       </c>
       <c r="H18" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I18" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -918,8 +963,11 @@
       <c r="C19" s="1">
         <v>2.0</v>
       </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="1">
         <v>2.0</v>
@@ -928,7 +976,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="1">
         <v>1.0</v>
@@ -936,7 +984,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -944,11 +992,14 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
+      <c r="D20" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G20" s="1">
         <v>2.0</v>
@@ -957,12 +1008,12 @@
         <v>2.0</v>
       </c>
       <c r="I20" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -970,25 +1021,28 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
+      <c r="D21" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E21" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" s="1">
         <v>2.0</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I21" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -996,8 +1050,11 @@
       <c r="C22" s="1">
         <v>2.0</v>
       </c>
+      <c r="D22" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E22" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" s="1">
         <v>2.0</v>
@@ -1006,15 +1063,15 @@
         <v>2.0</v>
       </c>
       <c r="H22" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -1022,25 +1079,28 @@
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
+      <c r="D23" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E23" s="1">
         <v>2.0</v>
       </c>
       <c r="F23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -1048,17 +1108,20 @@
       <c r="C24" s="1">
         <v>2.0</v>
       </c>
+      <c r="D24" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E24" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F24" s="1">
         <v>1.0</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" s="1">
         <v>3.0</v>
@@ -1066,7 +1129,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -1074,25 +1137,28 @@
       <c r="C25" s="1">
         <v>2.0</v>
       </c>
+      <c r="D25" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E25" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F25" s="1">
         <v>2.0</v>
       </c>
       <c r="G25" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I25" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>2.0</v>
@@ -1100,25 +1166,28 @@
       <c r="C26" s="1">
         <v>2.0</v>
       </c>
+      <c r="D26" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F26" s="1">
         <v>2.0</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I26" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>2.0</v>
@@ -1126,17 +1195,20 @@
       <c r="C27" s="1">
         <v>2.0</v>
       </c>
+      <c r="D27" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E27" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" s="1">
         <v>2.0</v>
       </c>
       <c r="G27" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I27" s="1">
         <v>3.0</v>
@@ -1144,7 +1216,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>2.0</v>
@@ -1152,25 +1224,28 @@
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
+      <c r="D28" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E28" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F28" s="1">
         <v>2.0</v>
       </c>
       <c r="G28" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H28" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>2.0</v>
@@ -1178,25 +1253,28 @@
       <c r="C29" s="1">
         <v>2.0</v>
       </c>
+      <c r="D29" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E29" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" s="1">
         <v>2.0</v>
       </c>
       <c r="G29" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I29" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>2.0</v>
@@ -1204,8 +1282,11 @@
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
+      <c r="D30" s="1">
+        <v>1.0</v>
+      </c>
       <c r="E30" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" s="1">
         <v>2.0</v>
@@ -1214,7 +1295,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" s="1">
         <v>1.0</v>
@@ -1222,7 +1303,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -1230,11 +1311,14 @@
       <c r="C31" s="1">
         <v>1.0</v>
       </c>
+      <c r="D31" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E31" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" s="1">
         <v>2.0</v>
@@ -1243,7 +1327,7 @@
         <v>2.0</v>
       </c>
       <c r="I31" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
